--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>102.881241948902</v>
+        <v>114.380483</v>
       </c>
       <c r="H2">
-        <v>102.881241948902</v>
+        <v>343.141449</v>
       </c>
       <c r="I2">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J2">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.927266656776352</v>
+        <v>0.9721403333333333</v>
       </c>
       <c r="N2">
-        <v>0.927266656776352</v>
+        <v>2.916421</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4203533802573702</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4203533802573701</v>
       </c>
       <c r="Q2">
-        <v>95.39834526695734</v>
+        <v>111.1938808704477</v>
       </c>
       <c r="R2">
-        <v>95.39834526695734</v>
+        <v>1000.744927834029</v>
       </c>
       <c r="S2">
-        <v>0.6594071714250275</v>
+        <v>0.2747840433331858</v>
       </c>
       <c r="T2">
-        <v>0.6594071714250275</v>
+        <v>0.2747840433331857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2356835174794</v>
+        <v>114.380483</v>
       </c>
       <c r="H3">
-        <v>15.2356835174794</v>
+        <v>343.141449</v>
       </c>
       <c r="I3">
-        <v>0.09765161056257278</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J3">
-        <v>0.09765161056257278</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.927266656776352</v>
+        <v>1.340533666666667</v>
       </c>
       <c r="N3">
-        <v>0.927266656776352</v>
+        <v>4.021601</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5796466197426299</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5796466197426299</v>
       </c>
       <c r="Q3">
-        <v>14.12754131895569</v>
+        <v>153.3308882710944</v>
       </c>
       <c r="R3">
-        <v>14.12754131895569</v>
+        <v>1379.977994439849</v>
       </c>
       <c r="S3">
-        <v>0.09765161056257278</v>
+        <v>0.3789136696837609</v>
       </c>
       <c r="T3">
-        <v>0.09765161056257278</v>
+        <v>0.3789136696837608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.9038859642375</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H4">
-        <v>37.9038859642375</v>
+        <v>47.125702</v>
       </c>
       <c r="I4">
-        <v>0.2429412180123998</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J4">
-        <v>0.2429412180123998</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.927266656776352</v>
+        <v>0.9721403333333333</v>
       </c>
       <c r="N4">
-        <v>0.927266656776352</v>
+        <v>2.916421</v>
       </c>
       <c r="O4">
+        <v>0.4203533802573702</v>
+      </c>
+      <c r="P4">
+        <v>0.4203533802573701</v>
+      </c>
+      <c r="Q4">
+        <v>15.27093188361578</v>
+      </c>
+      <c r="R4">
+        <v>137.438386952542</v>
+      </c>
+      <c r="S4">
+        <v>0.03773776376538761</v>
+      </c>
+      <c r="T4">
+        <v>0.03773776376538761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G5">
+        <v>15.70856733333333</v>
+      </c>
+      <c r="H5">
+        <v>47.125702</v>
+      </c>
+      <c r="I5">
+        <v>0.08977628238003432</v>
+      </c>
+      <c r="J5">
+        <v>0.08977628238003432</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.021601</v>
+      </c>
+      <c r="O5">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P5">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q5">
+        <v>21.05786336543356</v>
+      </c>
+      <c r="R5">
+        <v>189.520770288902</v>
+      </c>
+      <c r="S5">
+        <v>0.05203851861464671</v>
+      </c>
+      <c r="T5">
+        <v>0.05203851861464671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.453212</v>
+      </c>
+      <c r="I6">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="J6">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>35.1470096168906</v>
-      </c>
-      <c r="R4">
-        <v>35.1470096168906</v>
-      </c>
-      <c r="S4">
-        <v>0.2429412180123998</v>
-      </c>
-      <c r="T4">
-        <v>0.2429412180123998</v>
+      <c r="M6">
+        <v>0.9721403333333333</v>
+      </c>
+      <c r="N6">
+        <v>2.916421</v>
+      </c>
+      <c r="O6">
+        <v>0.4203533802573702</v>
+      </c>
+      <c r="P6">
+        <v>0.4203533802573701</v>
+      </c>
+      <c r="Q6">
+        <v>0.1468618882502222</v>
+      </c>
+      <c r="R6">
+        <v>1.321756994252</v>
+      </c>
+      <c r="S6">
+        <v>0.0003629273764800119</v>
+      </c>
+      <c r="T6">
+        <v>0.0003629273764800118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.453212</v>
+      </c>
+      <c r="I7">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="J7">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.021601</v>
+      </c>
+      <c r="O7">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P7">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q7">
+        <v>0.2025153147124444</v>
+      </c>
+      <c r="R7">
+        <v>1.822637832412</v>
+      </c>
+      <c r="S7">
+        <v>0.0005004589872927785</v>
+      </c>
+      <c r="T7">
+        <v>0.0005004589872927785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H8">
+        <v>134.203378</v>
+      </c>
+      <c r="I8">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J8">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9721403333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.916421</v>
+      </c>
+      <c r="O8">
+        <v>0.4203533802573702</v>
+      </c>
+      <c r="P8">
+        <v>0.4203533802573701</v>
+      </c>
+      <c r="Q8">
+        <v>43.4881722077931</v>
+      </c>
+      <c r="R8">
+        <v>391.3935498701379</v>
+      </c>
+      <c r="S8">
+        <v>0.1074686457823167</v>
+      </c>
+      <c r="T8">
+        <v>0.1074686457823167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H9">
+        <v>134.203378</v>
+      </c>
+      <c r="I9">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J9">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.340533666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.021601</v>
+      </c>
+      <c r="O9">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="P9">
+        <v>0.5796466197426299</v>
+      </c>
+      <c r="Q9">
+        <v>59.96804879646422</v>
+      </c>
+      <c r="R9">
+        <v>539.712439168178</v>
+      </c>
+      <c r="S9">
+        <v>0.1481939724569295</v>
+      </c>
+      <c r="T9">
+        <v>0.1481939724569295</v>
       </c>
     </row>
   </sheetData>
